--- a/experiments/exp_logs (copy).xlsx
+++ b/experiments/exp_logs (copy).xlsx
@@ -125,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -151,6 +151,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -196,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,12 +216,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,55 +256,55 @@
   <dimension ref="1:14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.9132653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.6632653061225"/>
-    <col collapsed="false" hidden="false" max="15" min="12" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="19" min="17" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="12.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="19" min="17" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
       <c r="AMH1" s="1"/>
       <c r="AMI1" s="1"/>
       <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -301,10 +320,10 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -319,36 +338,33 @@
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AMH2" s="1"/>
-      <c r="AMI2" s="1"/>
-      <c r="AMJ2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -381,7 +397,7 @@
       <c r="J3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="1" t="n">
@@ -390,6 +406,8 @@
       <c r="M3" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
       <c r="P3" s="1" t="n">
         <v>1</v>
       </c>
@@ -437,7 +455,7 @@
       <c r="J4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="1" t="n">
@@ -446,12 +464,15 @@
       <c r="M4" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
       <c r="P4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R4" s="0"/>
       <c r="S4" s="1" t="n">
         <v>200</v>
       </c>
@@ -493,9 +514,14 @@
       <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
       <c r="N5" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
       <c r="R5" s="1" t="n">
         <v>256</v>
       </c>
@@ -540,9 +566,15 @@
       <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
       <c r="N6" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
       <c r="S6" s="1" t="n">
         <v>200</v>
       </c>
@@ -584,12 +616,17 @@
       <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="1" t="n">
         <v>200</v>
       </c>
       <c r="O7" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="1" t="n">
         <v>200</v>
       </c>
@@ -628,15 +665,19 @@
       <c r="J8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
       <c r="N8" s="1" t="n">
         <v>200</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
       <c r="R8" s="1" t="n">
         <v>256</v>
       </c>
@@ -687,6 +728,8 @@
       <c r="M9" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
       <c r="P9" s="1" t="n">
         <v>0</v>
       </c>
@@ -743,6 +786,8 @@
       <c r="M10" s="1" t="n">
         <v>256</v>
       </c>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
       <c r="P10" s="1" t="n">
         <v>1</v>
       </c>
@@ -799,12 +844,15 @@
       <c r="M11" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
       <c r="P11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R11" s="0"/>
       <c r="S11" s="1" t="n">
         <v>200</v>
       </c>
@@ -849,9 +897,14 @@
       <c r="L12" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
       <c r="Q12" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="R12" s="0"/>
       <c r="S12" s="1" t="n">
         <v>200</v>
       </c>
@@ -893,12 +946,18 @@
       <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
       <c r="N13" s="1" t="n">
         <v>200</v>
       </c>
       <c r="O13" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
       <c r="T13" s="1" t="n">
         <v>483200</v>
       </c>
